--- a/Equipe201(2).xlsx
+++ b/Equipe201(2).xlsx
@@ -5238,7 +5238,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="B6" s="160" t="n">
         <f aca="false">(Fonctionnalités!E52)</f>
-        <v>0.9502</v>
+        <v>0.9642</v>
       </c>
       <c r="C6" s="161" t="n">
         <f aca="false">'Assurance Qualité'!F60</f>
@@ -5330,14 +5330,14 @@
       </c>
       <c r="D6" s="161" t="n">
         <f aca="false">B6*0.6+C6*0.4 - 0.1*E6</f>
-        <v>0.86412</v>
+        <v>0.87252</v>
       </c>
       <c r="F6" s="154" t="n">
         <v>20</v>
       </c>
       <c r="G6" s="155" t="n">
         <f aca="false">D6*F6</f>
-        <v>17.2824</v>
+        <v>17.4504</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,7 +5381,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.86"/>
@@ -6927,10 +6927,10 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F55" activeCellId="0" sqref="F55"/>
+      <selection pane="topLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
@@ -7738,7 +7738,7 @@
         <v>209</v>
       </c>
       <c r="B47" s="291" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C47" s="291" t="n">
         <v>1</v>
@@ -7748,7 +7748,7 @@
       </c>
       <c r="E47" s="291" t="n">
         <f aca="false">B47*C47*D47</f>
-        <v>12.6</v>
+        <v>14</v>
       </c>
       <c r="F47" s="289" t="s">
         <v>210</v>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="E52" s="299" t="n">
         <f aca="false">SUM(E42:E51)/D52 - D53*E53  - D54*E54 - D55*E55</f>
-        <v>0.9502</v>
+        <v>0.9642</v>
       </c>
       <c r="F52" s="300"/>
     </row>
